--- a/Data/doctor_schedule.xlsx
+++ b/Data/doctor_schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="20">
   <si>
     <t>DoctorName</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>13:00-14:00</t>
+  </si>
+  <si>
+    <t>Booked</t>
   </si>
   <si>
     <t>Available</t>
@@ -473,7 +476,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -487,7 +490,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -501,7 +504,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -515,7 +518,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -529,7 +532,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -543,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -557,7 +560,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -571,7 +574,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -585,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -599,7 +602,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -613,7 +616,7 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -627,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -641,7 +644,7 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -655,7 +658,7 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -669,7 +672,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -683,7 +686,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -697,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -711,7 +714,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -725,7 +728,7 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -739,7 +742,7 @@
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -753,7 +756,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -767,7 +770,7 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -781,7 +784,7 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -795,7 +798,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -809,7 +812,7 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -823,7 +826,7 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -837,7 +840,7 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -851,7 +854,7 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -865,7 +868,7 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -879,7 +882,7 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -893,7 +896,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -907,7 +910,7 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -921,7 +924,7 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -935,7 +938,7 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -949,7 +952,7 @@
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -963,7 +966,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -977,7 +980,7 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -991,7 +994,7 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1005,7 +1008,7 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1019,7 +1022,7 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1033,7 +1036,7 @@
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1047,7 +1050,7 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1061,7 +1064,7 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1075,7 +1078,7 @@
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1089,7 +1092,7 @@
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1103,7 +1106,7 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1117,7 +1120,7 @@
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1131,7 +1134,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1145,7 +1148,7 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1159,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1173,7 +1176,7 @@
         <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1187,7 +1190,7 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1201,7 +1204,7 @@
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1215,7 +1218,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1229,7 +1232,7 @@
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1243,7 +1246,7 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1257,7 +1260,7 @@
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1271,7 +1274,7 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1285,7 +1288,7 @@
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1299,7 +1302,7 @@
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1313,7 +1316,7 @@
         <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1327,7 +1330,7 @@
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1341,7 +1344,7 @@
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1355,7 +1358,7 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1369,7 +1372,7 @@
         <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1383,7 +1386,7 @@
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1397,7 +1400,7 @@
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1411,7 +1414,7 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1425,7 +1428,7 @@
         <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1439,7 +1442,7 @@
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1453,7 +1456,7 @@
         <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1467,7 +1470,7 @@
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1481,7 +1484,7 @@
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1495,7 +1498,7 @@
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1509,7 +1512,7 @@
         <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1523,7 +1526,7 @@
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1537,7 +1540,7 @@
         <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1551,7 +1554,7 @@
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1565,7 +1568,7 @@
         <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1579,7 +1582,7 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1593,7 +1596,7 @@
         <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1607,7 +1610,7 @@
         <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1621,7 +1624,7 @@
         <v>17</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1635,7 +1638,7 @@
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1649,7 +1652,7 @@
         <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1663,7 +1666,7 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1677,7 +1680,7 @@
         <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1691,7 +1694,7 @@
         <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1705,7 +1708,7 @@
         <v>17</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
